--- a/config_2.9/common_question_answer_server.xlsx
+++ b/config_2.9/common_question_answer_server.xlsx
@@ -98,11 +98,11 @@
     <t>game</t>
   </si>
   <si>
-    <t>answer_202_2_9</t>
+    <t>answer_2021_2_9_cjj</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>answer_2021_2_9_cjj</t>
+    <t>answer_2021_2_9</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +530,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -596,7 +596,7 @@
     </row>
     <row r="2" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>

--- a/config_2.9/common_question_answer_server.xlsx
+++ b/config_2.9/common_question_answer_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -167,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,12 +178,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -253,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -536,7 +530,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,7 +611,7 @@
         <v>9999</v>
       </c>
       <c r="F2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="6">
         <v>1</v>
@@ -625,11 +619,11 @@
       <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="8">
-        <v>1582587000</v>
+      <c r="I2" s="5">
+        <v>1612827000</v>
       </c>
       <c r="J2" s="5">
-        <v>1583164799</v>
+        <v>1613404799</v>
       </c>
       <c r="L2" s="6"/>
       <c r="N2" s="6"/>
@@ -644,12 +638,30 @@
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>9999</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1612827000</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1613404799</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="N3" s="6"/>
       <c r="P3" s="6"/>
@@ -2320,7 +2332,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_2.9/common_question_answer_server.xlsx
+++ b/config_2.9/common_question_answer_server.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>key|活动唯一标识</t>
   </si>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>answer_2021_2_9</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_2021_2_23</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -530,12 +534,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="20.625" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="5" customWidth="1"/>
@@ -669,16 +673,36 @@
       <c r="V3" s="11"/>
     </row>
     <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="A4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>9999</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1614038400</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1614614399</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="N4" s="6"/>
       <c r="P4" s="6"/>
@@ -2337,11 +2361,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="16.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2395,7 +2419,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C39" sqref="C39:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_2.9/common_question_answer_server.xlsx
+++ b/config_2.9/common_question_answer_server.xlsx
@@ -534,7 +534,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="D4" s="8">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="E4" s="8">
         <v>9999</v>
